--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="132">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,261 +46,255 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>ripped</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>thin</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>disappointed</t>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>tiny</t>
   </si>
   <si>
     <t>instead</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>pool</t>
+    <t>missing</t>
   </si>
   <si>
     <t>water</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>probably</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
-    <t>missing</t>
+    <t>guess</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>guess</t>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
   <si>
     <t>plastic</t>
   </si>
   <si>
+    <t>cheap</t>
+  </si>
+  <si>
     <t>fell</t>
   </si>
   <si>
-    <t>short</t>
-  </si>
-  <si>
     <t>apart</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>paint</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
     <t>di</t>
   </si>
   <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
     <t>difficult</t>
   </si>
   <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
     <t>bad</t>
   </si>
   <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>sound</t>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>hold</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
-    <t>bit</t>
+    <t>back</t>
+  </si>
+  <si>
+    <t>hard</t>
   </si>
   <si>
     <t>fit</t>
   </si>
   <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
-    <t>item</t>
+    <t>would</t>
+  </si>
+  <si>
+    <t>worked</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
-    <t>though</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>need</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>pieces</t>
   </si>
   <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
     <t>expected</t>
   </si>
   <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
-    <t>use</t>
+    <t>made</t>
+  </si>
+  <si>
+    <t>two</t>
   </si>
   <si>
     <t>even</t>
   </si>
   <si>
-    <t>two</t>
-  </si>
-  <si>
     <t>little</t>
   </si>
   <si>
-    <t>made</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
     <t>toy</t>
   </si>
   <si>
+    <t>get</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>get</t>
+    <t>got</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
-    <t>old</t>
+    <t>time</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -310,36 +304,36 @@
     <t>classic</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>loves</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>expansion</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>elf</t>
-  </si>
-  <si>
     <t>highly</t>
   </si>
   <si>
@@ -349,16 +343,16 @@
     <t>happy</t>
   </si>
   <si>
-    <t>sturdy</t>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>christmas</t>
   </si>
   <si>
     <t>every</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>enjoy</t>
+    <t>birthday</t>
   </si>
   <si>
     <t>fun</t>
@@ -367,7 +361,7 @@
     <t>enjoyed</t>
   </si>
   <si>
-    <t>birthday</t>
+    <t>family</t>
   </si>
   <si>
     <t>book</t>
@@ -376,46 +370,43 @@
     <t>game</t>
   </si>
   <si>
-    <t>games</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
     <t>cute</t>
   </si>
   <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>playing</t>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>played</t>
+  </si>
+  <si>
+    <t>grandson</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>playing</t>
-  </si>
-  <si>
-    <t>play</t>
-  </si>
-  <si>
-    <t>grandson</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>recommend</t>
+    <t>year</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>son</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
     <t>kids</t>
-  </si>
-  <si>
-    <t>year</t>
   </si>
   <si>
     <t>positive</t>
@@ -776,7 +767,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -784,10 +775,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -845,13 +836,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -863,19 +854,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K3">
-        <v>0.8928571428571429</v>
+        <v>0.9076923076923077</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="M3">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -895,13 +886,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8863636363636364</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -913,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K4">
-        <v>0.8615384615384616</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -937,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -945,13 +936,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8169014084507042</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C5">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -963,19 +954,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K5">
-        <v>0.8518518518518519</v>
+        <v>0.875</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -987,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -995,7 +986,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7586206896551724</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="C6">
         <v>22</v>
@@ -1013,19 +1004,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K6">
-        <v>0.8064516129032258</v>
+        <v>0.8494623655913979</v>
       </c>
       <c r="L6">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M6">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1037,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1045,13 +1036,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.75</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="C7">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D7">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1066,16 +1057,16 @@
         <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K7">
-        <v>0.796875</v>
+        <v>0.78125</v>
       </c>
       <c r="L7">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M7">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1087,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1095,13 +1086,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7454545454545455</v>
+        <v>0.734375</v>
       </c>
       <c r="C8">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D8">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1113,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K8">
-        <v>0.6981132075471698</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1137,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1145,13 +1136,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7368421052631579</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1163,19 +1154,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K9">
-        <v>0.6212338593974175</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L9">
-        <v>433</v>
+        <v>46</v>
       </c>
       <c r="M9">
-        <v>433</v>
+        <v>46</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1187,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>264</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1195,13 +1186,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7150537634408602</v>
+        <v>0.7184466019417476</v>
       </c>
       <c r="C10">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="D10">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1213,19 +1204,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K10">
-        <v>0.5850622406639004</v>
+        <v>0.6269727403156384</v>
       </c>
       <c r="L10">
-        <v>282</v>
+        <v>437</v>
       </c>
       <c r="M10">
-        <v>282</v>
+        <v>437</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1237,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>200</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1245,13 +1236,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7083333333333334</v>
+        <v>0.7094594594594594</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="D11">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1263,19 +1254,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K11">
-        <v>0.5652173913043478</v>
+        <v>0.6182572614107884</v>
       </c>
       <c r="L11">
-        <v>39</v>
+        <v>298</v>
       </c>
       <c r="M11">
-        <v>39</v>
+        <v>298</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1287,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>30</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1295,13 +1286,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6959459459459459</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="C12">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="D12">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1313,19 +1304,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K12">
-        <v>0.5491803278688525</v>
+        <v>0.5270491803278688</v>
       </c>
       <c r="L12">
-        <v>670</v>
+        <v>643</v>
       </c>
       <c r="M12">
-        <v>670</v>
+        <v>643</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1337,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>550</v>
+        <v>577</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1345,13 +1336,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6857142857142857</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1363,19 +1354,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K13">
-        <v>0.4528301886792453</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="L13">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M13">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1387,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1395,13 +1386,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6666666666666666</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="C14">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1413,19 +1404,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K14">
-        <v>0.4342507645259939</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="L14">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="M14">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1437,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>185</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1445,13 +1436,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6601941747572816</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="C15">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="D15">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1463,19 +1454,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K15">
-        <v>0.4338624338624338</v>
+        <v>0.4339622641509434</v>
       </c>
       <c r="L15">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="M15">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1487,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>107</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1495,13 +1486,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6470588235294118</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="C16">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D16">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1513,31 +1504,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K16">
-        <v>0.4216867469879518</v>
+        <v>0.4294478527607362</v>
       </c>
       <c r="L16">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="M16">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>96</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1545,13 +1536,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6052631578947368</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="C17">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1563,19 +1554,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K17">
-        <v>0.4166666666666667</v>
+        <v>0.3915662650602409</v>
       </c>
       <c r="L17">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="M17">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1587,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>70</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1595,13 +1586,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5391304347826087</v>
+        <v>0.6050420168067226</v>
       </c>
       <c r="C18">
-        <v>186</v>
+        <v>72</v>
       </c>
       <c r="D18">
-        <v>186</v>
+        <v>72</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1613,19 +1604,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>159</v>
+        <v>47</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K18">
-        <v>0.359375</v>
+        <v>0.3583333333333333</v>
       </c>
       <c r="L18">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="M18">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1637,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1645,37 +1636,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5333333333333333</v>
+        <v>0.5391304347826087</v>
       </c>
       <c r="C19">
+        <v>186</v>
+      </c>
+      <c r="D19">
+        <v>186</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>159</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="L19">
         <v>24</v>
       </c>
-      <c r="D19">
-        <v>24</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>21</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19">
-        <v>0.3552631578947368</v>
-      </c>
-      <c r="L19">
-        <v>27</v>
-      </c>
       <c r="M19">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N19">
         <v>0.96</v>
@@ -1687,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1695,13 +1686,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5301204819277109</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="C20">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D20">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1713,19 +1704,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K20">
-        <v>0.3515625</v>
+        <v>0.3125</v>
       </c>
       <c r="L20">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M20">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1737,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1745,13 +1736,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5185185185185185</v>
+        <v>0.5301204819277109</v>
       </c>
       <c r="C21">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D21">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1763,19 +1754,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K21">
-        <v>0.3426573426573427</v>
+        <v>0.2657342657342657</v>
       </c>
       <c r="L21">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="M21">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1787,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1795,13 +1786,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5118110236220472</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C22">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="D22">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1813,31 +1804,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K22">
-        <v>0.3103448275862069</v>
+        <v>0.2648648648648649</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="M22">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>60</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1845,13 +1836,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.509090909090909</v>
+        <v>0.5116279069767442</v>
       </c>
       <c r="C23">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D23">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1863,19 +1854,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K23">
-        <v>0.304</v>
+        <v>0.248995983935743</v>
       </c>
       <c r="L23">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="M23">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1887,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>87</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1895,13 +1886,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4897959183673469</v>
+        <v>0.5</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D24">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1913,31 +1904,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K24">
-        <v>0.2834008097165992</v>
+        <v>0.248</v>
       </c>
       <c r="L24">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="M24">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="N24">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>177</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1945,13 +1936,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4842105263157895</v>
+        <v>0.4881889763779528</v>
       </c>
       <c r="C25">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D25">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1963,31 +1954,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K25">
-        <v>0.2554347826086957</v>
+        <v>0.2393162393162393</v>
       </c>
       <c r="L25">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="M25">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="N25">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>137</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1995,13 +1986,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4814814814814815</v>
+        <v>0.4881516587677725</v>
       </c>
       <c r="C26">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="D26">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2013,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K26">
-        <v>0.242530755711775</v>
+        <v>0.234622144112478</v>
       </c>
       <c r="L26">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="M26">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="N26">
         <v>0.99</v>
@@ -2037,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>862</v>
+        <v>871</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2045,13 +2036,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4791666666666667</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="C27">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D27">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2063,31 +2054,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K27">
-        <v>0.24</v>
+        <v>0.2301587301587301</v>
       </c>
       <c r="L27">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M27">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N27">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2095,13 +2086,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4609375</v>
+        <v>0.4526315789473684</v>
       </c>
       <c r="C28">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D28">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2113,19 +2104,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K28">
-        <v>0.2051282051282051</v>
+        <v>0.1866295264623956</v>
       </c>
       <c r="L28">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="M28">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2137,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>93</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2145,13 +2136,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4603174603174603</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2163,10 +2154,10 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K29">
         <v>0.1688311688311688</v>
@@ -2195,13 +2186,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4597156398104265</v>
+        <v>0.4375</v>
       </c>
       <c r="C30">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="D30">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2213,31 +2204,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K30">
-        <v>0.1650294695481336</v>
+        <v>0.1528952504879636</v>
       </c>
       <c r="L30">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="M30">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="N30">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="O30">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>1275</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2245,13 +2236,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.453125</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C31">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D31">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2263,31 +2254,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K31">
-        <v>0.1582278481012658</v>
+        <v>0.1313672922252011</v>
       </c>
       <c r="L31">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="M31">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="N31">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="O31">
-        <v>0.11</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>133</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2295,13 +2286,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.449438202247191</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="C32">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D32">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2313,31 +2304,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K32">
-        <v>0.1564245810055866</v>
+        <v>0.12109375</v>
       </c>
       <c r="L32">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="M32">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="N32">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O32">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>302</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2345,13 +2336,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4477611940298508</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="C33">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D33">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2363,31 +2354,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K33">
-        <v>0.1559139784946237</v>
+        <v>0.11</v>
       </c>
       <c r="L33">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="M33">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="N33">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O33">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>314</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2395,13 +2386,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="C34">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D34">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2413,19 +2404,19 @@
         <v>0</v>
       </c>
       <c r="H34">
+        <v>38</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K34">
+        <v>0.108359133126935</v>
+      </c>
+      <c r="L34">
+        <v>35</v>
+      </c>
+      <c r="M34">
         <v>36</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K34">
-        <v>0.125</v>
-      </c>
-      <c r="L34">
-        <v>32</v>
-      </c>
-      <c r="M34">
-        <v>33</v>
       </c>
       <c r="N34">
         <v>0.97</v>
@@ -2437,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>224</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2445,13 +2436,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3934426229508197</v>
+        <v>0.3932584269662922</v>
       </c>
       <c r="C35">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D35">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2463,31 +2454,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K35">
-        <v>0.1076388888888889</v>
+        <v>0.101078167115903</v>
       </c>
       <c r="L35">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="M35">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="N35">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="O35">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>257</v>
+        <v>667</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2495,49 +2486,49 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3928571428571428</v>
+        <v>0.3712871287128713</v>
       </c>
       <c r="C36">
+        <v>75</v>
+      </c>
+      <c r="D36">
+        <v>75</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>127</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K36">
+        <v>0.09482758620689655</v>
+      </c>
+      <c r="L36">
         <v>22</v>
       </c>
-      <c r="D36">
-        <v>22</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>34</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K36">
-        <v>0.1052631578947368</v>
-      </c>
-      <c r="L36">
-        <v>34</v>
-      </c>
       <c r="M36">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N36">
-        <v>0.97</v>
+        <v>0.85</v>
       </c>
       <c r="O36">
-        <v>0.03000000000000003</v>
+        <v>0.15</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>289</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2545,13 +2536,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3809523809523809</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="C37">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D37">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2563,31 +2554,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K37">
-        <v>0.09395973154362416</v>
+        <v>0.09032258064516129</v>
       </c>
       <c r="L37">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="M37">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="N37">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="O37">
-        <v>0.08999999999999997</v>
+        <v>0.12</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>675</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2595,13 +2586,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3513513513513514</v>
+        <v>0.3432835820895522</v>
       </c>
       <c r="C38">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D38">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2613,31 +2604,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K38">
-        <v>0.08709677419354839</v>
+        <v>0.0798611111111111</v>
       </c>
       <c r="L38">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M38">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N38">
-        <v>0.87</v>
+        <v>0.92</v>
       </c>
       <c r="O38">
-        <v>0.13</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2645,13 +2636,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3366336633663367</v>
+        <v>0.3163265306122449</v>
       </c>
       <c r="C39">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="D39">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2663,31 +2654,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K39">
-        <v>0.08445945945945946</v>
+        <v>0.06882591093117409</v>
       </c>
       <c r="L39">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M39">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="N39">
-        <v>0.8100000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="O39">
-        <v>0.1899999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>271</v>
+        <v>460</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2695,13 +2686,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3333333333333333</v>
+        <v>0.3162393162393162</v>
       </c>
       <c r="C40">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D40">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2713,31 +2704,31 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K40">
-        <v>0.08088235294117647</v>
+        <v>0.06544502617801047</v>
       </c>
       <c r="L40">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M40">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N40">
-        <v>0.58</v>
+        <v>0.64</v>
       </c>
       <c r="O40">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>250</v>
+        <v>357</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2745,49 +2736,49 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3264248704663212</v>
+        <v>0.3108108108108108</v>
       </c>
       <c r="C41">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D41">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="E41">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K41">
-        <v>0.06788511749347259</v>
+        <v>0.06323185011709602</v>
       </c>
       <c r="L41">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M41">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="N41">
-        <v>0.67</v>
+        <v>0.82</v>
       </c>
       <c r="O41">
-        <v>0.33</v>
+        <v>0.18</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>357</v>
+        <v>400</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2795,13 +2786,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3163265306122449</v>
+        <v>0.3092783505154639</v>
       </c>
       <c r="C42">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D42">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2813,31 +2804,31 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K42">
-        <v>0.06657018813314038</v>
+        <v>0.05780346820809248</v>
       </c>
       <c r="L42">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="M42">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="N42">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="O42">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>645</v>
+        <v>652</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2845,49 +2836,49 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2916666666666667</v>
+        <v>0.3</v>
       </c>
       <c r="C43">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D43">
+        <v>42</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>98</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K43">
+        <v>0.05215827338129497</v>
+      </c>
+      <c r="L43">
         <v>29</v>
       </c>
-      <c r="E43">
-        <v>0.03</v>
-      </c>
-      <c r="F43">
-        <v>0.97</v>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>68</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="K43">
-        <v>0.05755395683453238</v>
-      </c>
-      <c r="L43">
-        <v>32</v>
-      </c>
       <c r="M43">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N43">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="O43">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2895,49 +2886,49 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2898089171974522</v>
+        <v>0.285</v>
       </c>
       <c r="C44">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="D44">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="E44">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>223</v>
+        <v>143</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="K44">
-        <v>0.04897959183673469</v>
+        <v>0.03310344827586207</v>
       </c>
       <c r="L44">
         <v>24</v>
       </c>
       <c r="M44">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="N44">
-        <v>0.71</v>
+        <v>0.26</v>
       </c>
       <c r="O44">
-        <v>0.29</v>
+        <v>0.74</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>466</v>
+        <v>701</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2945,13 +2936,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2826086956521739</v>
+        <v>0.2783505154639175</v>
       </c>
       <c r="C45">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="D45">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2963,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>198</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2971,13 +2962,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2563291139240506</v>
+        <v>0.2783505154639175</v>
       </c>
       <c r="C46">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="D46">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2989,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>235</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2997,13 +2988,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2478632478632479</v>
+        <v>0.2753623188405797</v>
       </c>
       <c r="C47">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="D47">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3015,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>88</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3023,25 +3014,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2471264367816092</v>
+        <v>0.2523961661341853</v>
       </c>
       <c r="C48">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="D48">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="E48">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F48">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>131</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3049,13 +3040,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.244047619047619</v>
+        <v>0.2470238095238095</v>
       </c>
       <c r="C49">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D49">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E49">
         <v>0.01</v>
@@ -3067,7 +3058,7 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3075,19 +3066,19 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2429906542056075</v>
+        <v>0.2358490566037736</v>
       </c>
       <c r="C50">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D50">
         <v>27</v>
       </c>
       <c r="E50">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F50">
-        <v>0.96</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
@@ -3101,13 +3092,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2417582417582418</v>
+        <v>0.2246835443037975</v>
       </c>
       <c r="C51">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="D51">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3119,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>69</v>
+        <v>245</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3127,25 +3118,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2383177570093458</v>
+        <v>0.2241379310344828</v>
       </c>
       <c r="C52">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D52">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>163</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3153,25 +3144,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2371134020618557</v>
+        <v>0.2206572769953052</v>
       </c>
       <c r="C53">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D53">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>74</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3179,25 +3170,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2362204724409449</v>
+        <v>0.2157894736842105</v>
       </c>
       <c r="C54">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D54">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E54">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F54">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>97</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3205,25 +3196,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.235632183908046</v>
+        <v>0.2138728323699422</v>
       </c>
       <c r="C55">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D55">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3231,13 +3222,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2288135593220339</v>
+        <v>0.2101910828025478</v>
       </c>
       <c r="C56">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D56">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3249,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>91</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3257,25 +3248,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2285714285714286</v>
+        <v>0.2101769911504425</v>
       </c>
       <c r="C57">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="D57">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>108</v>
+        <v>357</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3283,25 +3274,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.225130890052356</v>
+        <v>0.1984126984126984</v>
       </c>
       <c r="C58">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D58">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>148</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3309,13 +3300,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2168141592920354</v>
+        <v>0.1917293233082707</v>
       </c>
       <c r="C59">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="D59">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="E59">
         <v>0.02</v>
@@ -3327,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <v>354</v>
+        <v>215</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3335,25 +3326,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.205</v>
+        <v>0.1896551724137931</v>
       </c>
       <c r="C60">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D60">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>159</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3361,13 +3352,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.2038216560509554</v>
+        <v>0.1846153846153846</v>
       </c>
       <c r="C61">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D61">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3379,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>125</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3387,25 +3378,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1924528301886793</v>
+        <v>0.1741935483870968</v>
       </c>
       <c r="C62">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="D62">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="E62">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="F62">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
       </c>
       <c r="H62">
-        <v>214</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3413,25 +3404,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.185792349726776</v>
+        <v>0.1708333333333333</v>
       </c>
       <c r="C63">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D63">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>149</v>
+        <v>199</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3439,25 +3430,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1832460732984293</v>
+        <v>0.1693989071038251</v>
       </c>
       <c r="C64">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D64">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E64">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3465,25 +3456,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1764705882352941</v>
+        <v>0.1648351648351648</v>
       </c>
       <c r="C65">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="D65">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="E65">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F65">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>126</v>
+        <v>304</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3491,25 +3482,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.155688622754491</v>
+        <v>0.1626506024096386</v>
       </c>
       <c r="C66">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D66">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E66">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="F66">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
       </c>
       <c r="H66">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3517,25 +3508,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1522633744855967</v>
+        <v>0.1559139784946237</v>
       </c>
       <c r="C67">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D67">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E67">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="F67">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>206</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3543,25 +3534,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1506849315068493</v>
+        <v>0.1485714285714286</v>
       </c>
       <c r="C68">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D68">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E68">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>124</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3569,13 +3560,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1485714285714286</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C69">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D69">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3587,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3595,25 +3586,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1474358974358974</v>
+        <v>0.1413612565445026</v>
       </c>
       <c r="C70">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D70">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E70">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="F70">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>133</v>
+        <v>164</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3621,25 +3612,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1420118343195266</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="C71">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D71">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E71">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>145</v>
+        <v>305</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3647,13 +3638,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1390374331550802</v>
+        <v>0.1369426751592357</v>
       </c>
       <c r="C72">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D72">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E72">
         <v>0.07000000000000001</v>
@@ -3665,7 +3656,7 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>161</v>
+        <v>271</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3673,25 +3664,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1359773371104816</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="C73">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D73">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E73">
-        <v>0.04</v>
+        <v>0.23</v>
       </c>
       <c r="F73">
-        <v>0.96</v>
+        <v>0.77</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>305</v>
+        <v>165</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3699,25 +3690,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1322314049586777</v>
+        <v>0.1258992805755396</v>
       </c>
       <c r="C74">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D74">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E74">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F74">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>315</v>
+        <v>243</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3725,25 +3716,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1290322580645161</v>
+        <v>0.1238738738738739</v>
       </c>
       <c r="C75">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D75">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="E75">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="F75">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>243</v>
+        <v>389</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3751,25 +3742,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1288659793814433</v>
+        <v>0.1190082644628099</v>
       </c>
       <c r="C76">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="D76">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="E76">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="F76">
-        <v>0.9299999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>169</v>
+        <v>533</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3777,25 +3768,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1196388261851016</v>
+        <v>0.1001540832049307</v>
       </c>
       <c r="C77">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D77">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="E77">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F77">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>390</v>
+        <v>584</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3803,25 +3794,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1182108626198083</v>
+        <v>0.09592326139088729</v>
       </c>
       <c r="C78">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D78">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E78">
-        <v>0.1</v>
+        <v>0.23</v>
       </c>
       <c r="F78">
-        <v>0.9</v>
+        <v>0.77</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
       </c>
       <c r="H78">
-        <v>276</v>
+        <v>377</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3829,25 +3820,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1064891846921797</v>
+        <v>0.08961038961038961</v>
       </c>
       <c r="C79">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D79">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="E79">
-        <v>0.1</v>
+        <v>0.26</v>
       </c>
       <c r="F79">
-        <v>0.9</v>
+        <v>0.74</v>
       </c>
       <c r="G79" t="b">
         <v>1</v>
       </c>
       <c r="H79">
-        <v>537</v>
+        <v>701</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3855,25 +3846,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.09937888198757763</v>
+        <v>0.0880952380952381</v>
       </c>
       <c r="C80">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D80">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="E80">
-        <v>0.15</v>
+        <v>0.27</v>
       </c>
       <c r="F80">
-        <v>0.85</v>
+        <v>0.73</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
       </c>
       <c r="H80">
-        <v>580</v>
+        <v>383</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3881,25 +3872,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.09806451612903226</v>
+        <v>0.07471264367816093</v>
       </c>
       <c r="C81">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="D81">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="E81">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F81">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>699</v>
+        <v>322</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3907,25 +3898,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.0947867298578199</v>
+        <v>0.06275303643724696</v>
       </c>
       <c r="C82">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D82">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E82">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="F82">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>382</v>
+        <v>463</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3933,77 +3924,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.08254716981132075</v>
+        <v>0.05977011494252873</v>
       </c>
       <c r="C83">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D83">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E83">
-        <v>0.12</v>
+        <v>0.32</v>
       </c>
       <c r="F83">
-        <v>0.88</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B84">
-        <v>0.05020080321285141</v>
-      </c>
-      <c r="C84">
-        <v>25</v>
-      </c>
-      <c r="D84">
-        <v>31</v>
-      </c>
-      <c r="E84">
-        <v>0.19</v>
-      </c>
-      <c r="F84">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B85">
-        <v>0.03412462908011869</v>
-      </c>
-      <c r="C85">
-        <v>23</v>
-      </c>
-      <c r="D85">
-        <v>41</v>
-      </c>
-      <c r="E85">
-        <v>0.44</v>
-      </c>
-      <c r="F85">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="G85" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85">
-        <v>651</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
